--- a/pred_ohlcv/54_21/2020-01-21 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 WOM ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>-231271.1098988568</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-213271.1098988568</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-180982.6799988568</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-309093.3213344282</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-309275.4607344281</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-309183.4607344281</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-322527.0647344281</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-342393.2487919323</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-348027.3144919323</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-347677.3144919323</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-369355.2029937117</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-366039.4476937117</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-364227.6042773416</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-364227.6042773416</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-362442.5003773416</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-362442.5003773416</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-379505.1710773416</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-381505.1710773416</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-381468.2083773416</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-382063.2083773416</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-399160.6672773416</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-384202.2414773416</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-385573.7143577916</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-583509.376453402</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-618976.561453402</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-618976.561453402</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-653754.8917534021</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-653729.8917534021</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-670395.3749534021</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-670364.3749534021</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-670548.8451534021</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-670540.8451534021</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-670540.8451534021</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-679879.5502534022</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-680579.5502534022</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-681809.9032534022</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 WOM ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>-231271.1098988568</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-213271.1098988568</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-180982.6799988568</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-342393.2487919323</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-347677.3144919323</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-369355.2029937117</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-366039.4476937117</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-364227.6042773416</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-364227.6042773416</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-362442.5003773416</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-362442.5003773416</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-379505.1710773416</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-381505.1710773416</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-381468.2083773416</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-382063.2083773416</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-388212.6040773416</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-384222.2414773416</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-384202.2414773416</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-384202.2414773416</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-384870.4794773416</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-385573.7143577916</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-386061.6775577916</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-398566.9892577917</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-395606.1985577916</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-583509.376453402</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-618976.561453402</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-618976.561453402</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-653754.8917534021</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-653729.8917534021</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-670395.3749534021</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-670364.3749534021</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-670548.8451534021</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-670540.8451534021</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-617973.3523534022</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-681496.3237534022</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-688970.0897534022</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-682112.0640534022</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
